--- a/data/trans_camb/IP18A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 1,88</t>
+          <t>-6,39; 1,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 0,0</t>
+          <t>-7,54; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 47,08</t>
+          <t>-2,22; 50,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 8,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,29</t>
+          <t>-2,55; 1,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 33,23</t>
+          <t>-0,97; 32,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,09</t>
+          <t>-0,45; 1,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,04</t>
+          <t>0,49; 2,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,51</t>
+          <t>0,96; 9,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,27</t>
+          <t>-0,94; 1,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,52</t>
+          <t>-0,72; 1,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,04</t>
+          <t>-0,85; 5,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,92</t>
+          <t>-0,38; 0,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,89</t>
+          <t>0,27; 1,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,37</t>
+          <t>0,81; 6,59</t>
         </is>
       </c>
     </row>
@@ -1228,22 +1228,22 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,04; —</t>
+          <t>0,61; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,43; 528,38</t>
+          <t>-80,69; 602,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,86; 688,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 362,29</t>
+          <t>-52,28; 360,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 708,81</t>
+          <t>7,46; 741,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,76; 2262,01</t>
+          <t>27,73; 2136,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,83</t>
+          <t>0,51; 4,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,61</t>
+          <t>-0,6; 2,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,0</t>
+          <t>-1,95; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,03</t>
+          <t>-1,55; 1,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,69</t>
+          <t>-1,53; 1,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 13,85</t>
+          <t>0,86; 15,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,82</t>
+          <t>-0,02; 2,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,6</t>
+          <t>-0,59; 1,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,93</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,21; —</t>
+          <t>-56,36; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,42</t>
+          <t>-0,26; 1,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,95</t>
+          <t>-0,03; 1,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,41</t>
+          <t>1,57; 9,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,01</t>
+          <t>-0,62; 1,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,49</t>
+          <t>-0,36; 1,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,65</t>
+          <t>0,2; 5,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,98</t>
+          <t>-0,22; 0,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,35</t>
+          <t>0,11; 1,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,15</t>
+          <t>1,31; 6,21</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 579,81</t>
+          <t>-39,79; 562,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 1013,97</t>
+          <t>-22,74; 790,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>105,27; 3302,63</t>
+          <t>90,43; 3472,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 415,36</t>
+          <t>-67,66; 374,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 622,39</t>
+          <t>-47,56; 499,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 1765,15</t>
+          <t>-24,46; 1858,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 296,07</t>
+          <t>-32,65; 283,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 395,12</t>
+          <t>6,95; 396,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>146,33; 1574,64</t>
+          <t>151,81; 1548,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,87</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,72; 1,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 54,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 1,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 2,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 32,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>807,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>947,23%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,14</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 1,9</t>
+          <t>-0,99; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,0</t>
+          <t>-0,69; 1,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 50,26</t>
+          <t>-0,71; 7,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>-0,52; 1,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,16</t>
+          <t>0,46; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 10,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,46</t>
+          <t>-0,45; 0,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,01</t>
+          <t>0,13; 1,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 32,14</t>
+          <t>0,7; 6,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-57,14%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>808,68%</t>
+          <t>156,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>85,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>447,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1133,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,38%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>173,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>919,37%</t>
+          <t>492,66%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,29; 438,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,86; 856,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 3623,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,42; 342,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 651,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,87; 2046,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,11</t>
+          <t>-1,56; 1,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,98</t>
+          <t>-1,23; 1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,6</t>
+          <t>0,61; 15,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,38</t>
+          <t>0,63; 5,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,53</t>
+          <t>-0,35; 2,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,87</t>
+          <t>-1,74; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,93</t>
+          <t>0,04; 2,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,92</t>
+          <t>-0,73; 1,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,59</t>
+          <t>0,14; 7,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>447,92%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1176,59%</t>
+          <t>1008,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>648,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>148,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>163,9%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>261,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>173,88%</t>
+          <t>89,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>509,04%</t>
+          <t>518,57%</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,61; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,69; 602,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,86; 688,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,28; 360,67</t>
+          <t>-53,7; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 741,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 2136,2</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,77</t>
+          <t>-0,65; 1,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,27</t>
+          <t>-0,25; 1,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,0</t>
+          <t>0,27; 6,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,02</t>
+          <t>-0,18; 1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,55</t>
+          <t>0,02; 1,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 15,27</t>
+          <t>1,38; 9,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,64</t>
+          <t>-0,15; 1,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,32</t>
+          <t>0,07; 1,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>1,41; 5,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>648,82%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>148,27%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>365,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>151,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>975,95%</t>
+          <t>668,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>261,67%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>118,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>512,19%</t>
+          <t>527,11%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,21; 378,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,36; 642,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 2083,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,13; 659,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 691,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,46; 3032,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,36; —</t>
+          <t>-25,72; 331,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-6,33; 371,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>164,28; 1515,59</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 1,34</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 1,95</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 9,09</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 1,0</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 1,44</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 5,36</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 0,96</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 1,38</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 6,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>97,26%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>151,78%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>683,05%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>36,36%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>86,94%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>363,78%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>66,28%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>118,57%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>531,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-39,79; 562,14</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-22,74; 790,34</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>90,43; 3472,62</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-67,66; 374,22</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-47,56; 499,39</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-24,46; 1858,32</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-32,65; 283,88</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 396,0</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>151,81; 1548,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
